--- a/tests/test_files/test_reader2.xlsx
+++ b/tests/test_files/test_reader2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\audit\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7EB000-E7C1-4659-8FDF-FE8FE5C56AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B15B4B-822F-4EE4-8C46-938E866F4A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A69FFC36-FA37-44D7-BF53-D7F5C3F1368C}"/>
+    <workbookView xWindow="16008" yWindow="4296" windowWidth="15372" windowHeight="11400" xr2:uid="{F3FF1C3A-2EF6-41C8-AC60-C5B4E696E2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,88 +34,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <r>
-      <t xml:space="preserve">лаб  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>5422</t>
-    </r>
+    <t>b</t>
   </si>
   <si>
-    <t>Конструкторско-технологическое проектирование ЭВМ и комплексов</t>
+    <t>c</t>
   </si>
   <si>
-    <t>нч  1 подгр  Макаров Н.Н.</t>
+    <t>d</t>
   </si>
   <si>
-    <t xml:space="preserve">чн 2 подгр  Макаров Н.Н. </t>
+    <t>b2</t>
   </si>
   <si>
-    <r>
-      <t>Системы автоматизации проектирования  лаб.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>5422</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 5.9.13.17  Макаров Н.Н. </t>
-    </r>
+    <t>c2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> Системы автоматизации проектирования  лаб.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>5422</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 3,7,11,15    Макаров Н.Н.</t>
-    </r>
+    <t>d2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,48 +67,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -177,9 +88,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -187,7 +96,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -209,15 +140,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -231,42 +153,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 26" xfId="2" xr:uid="{DB308183-482F-4253-93B3-ED0F70E16263}"/>
-    <cellStyle name="Обычный 3" xfId="1" xr:uid="{2C629FB4-3AC1-4D41-8AF9-F1E2BC176646}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -577,69 +477,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61C0108-98B5-4C77-A117-51A23C9304BC}">
-  <dimension ref="B1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADDCC0A-6826-4C08-8ABD-B7BD706C43ED}">
+  <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="102.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+    <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/test_files/test_reader2.xlsx
+++ b/tests/test_files/test_reader2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\audit\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B15B4B-822F-4EE4-8C46-938E866F4A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C2155-634C-4184-9EF6-053DF5DE5695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16008" yWindow="4296" windowWidth="15372" windowHeight="11400" xr2:uid="{F3FF1C3A-2EF6-41C8-AC60-C5B4E696E2D3}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>d</t>
@@ -48,10 +45,13 @@
     <t>b2</t>
   </si>
   <si>
-    <t>c2</t>
+    <t>d2</t>
   </si>
   <si>
-    <t>d2</t>
+    <t>q</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADDCC0A-6826-4C08-8ABD-B7BD706C43ED}">
-  <dimension ref="B1:C6"/>
+  <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,28 +496,38 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/test_files/test_reader2.xlsx
+++ b/tests/test_files/test_reader2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\audit\tests\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C2155-634C-4184-9EF6-053DF5DE5695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890695DF-E0C2-4409-A5FF-799A5A2A1E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16008" yWindow="4296" windowWidth="15372" windowHeight="11400" xr2:uid="{F3FF1C3A-2EF6-41C8-AC60-C5B4E696E2D3}"/>
   </bookViews>
